--- a/Requerimientos Parqueadero.xlsx
+++ b/Requerimientos Parqueadero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aprendiz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhoan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA51E2E5-EFF1-47CA-BF31-C80B286005C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3908606B-278F-4A32-B4B8-714DBA9B28D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" activeTab="1" xr2:uid="{3988C1B8-DEA9-472A-9E64-089533DFC60C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3988C1B8-DEA9-472A-9E64-089533DFC60C}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="123">
   <si>
     <t>REF No</t>
   </si>
@@ -320,9 +320,6 @@
   <si>
     <t>El sistma permitira al usuario cliente Inhabilitar/Habilitar un vehículo que haya registrado en su cuenta, al realizar esta accíon deberá mostrarle una notificación en pantalla al cliente que la acción fue exitosa, de lo contrario notificar que algo salió mal.
 **El sistema también deberá mantener el vehículo inhabilitado en un submodulo de archivo y notificararle al usuario cliente  que despues de 30 días el vehículo se eliminará completamente y ademas, si en el rango de esos 30 días el usuario desea restaurar el vehículo inhabilitado se lo permita hacer y notificarle en un mendaje en pantalla: Restauración exitosa.</t>
-  </si>
-  <si>
-    <t>GESTIONAR RESERVAS</t>
   </si>
   <si>
     <t xml:space="preserve">El sistemas permitirá al administardor registrar plazas de estacionamiento al sistema, especificando su ubicación, tamaño y precio por hora.
@@ -378,14 +375,6 @@
     <t>GESTIONAR FACTURACIÓN</t>
   </si>
   <si>
-    <t>El sistema deberá permitir al usuario colaborador registrar una factura, siempre y cuando se haya realizado el Check Out del servicio. 
-El sistema realizará  automaticamente la facturación, unicamente el usuario colaborador deberá diligenciar la identificación del cliente y el sistema consultará el último ckeck Out registrado para este cliente y realizará la factura que contendra: Razon social Parqueadero, Nit, dirección, número contacto, nombre del colaborador asosiado en la facturación, número de factura, fecha creación factura, hora creación factura, ciudad y departamento de facturación,metodo de pago, tambien tendrá detalles de factura, con su respectivo subtotal, IVA por servicio, y total.
-Para el pagó de la factura se recibirá tres medios de pago: tarjeta de crédito, tarjeta débito y pago en efectivo.
-**La factura se entregará al cliente por medio de su correo eléctronico**
-**Si se presenta alguna nivedad el usuario colaborador podrá cancelar la factura y no registrarla en la base de datos y podrá solicitar una nueva factura**
-**Si todo va bien el sistema mostrará al usuario colaborador el siguiente mensaje: Factura registrada exitosamente.**</t>
-  </si>
-  <si>
     <t>El sistema permitirá al usuario colaborador y al usuario administrador hacer consultas sobre las facturas mediante el número de la factura</t>
   </si>
   <si>
@@ -445,6 +434,41 @@
   </si>
   <si>
     <t>El sistema permitirá al usuario administrador eliminar una factura mediante el número de la factura.</t>
+  </si>
+  <si>
+    <t>El Sistema deberá permitir al usuario cliente consultar el historial de sus visitas al parqueadero, mostrandole toda la información del servicio que se prestó</t>
+  </si>
+  <si>
+    <t>GESTIONAR HISTORIAL DE VISITAS (Cliente)</t>
+  </si>
+  <si>
+    <t>GESTIONAR RESERVAS (Cliente)</t>
+  </si>
+  <si>
+    <t>Usuario debidamente Logueado y existir por lo menos un registro de visita al parqueadero</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitir al usuario colaborador registrar una factura, siempre y cuando se haya realizado el Check Out del servicio. 
+El sistema realizará  automaticamente la facturación, unicamente el usuario colaborador deberá diligenciar la identificación del cliente y el sistema consultará el último ckeck Out registrado para este cliente y realizará la factura que contendra: Razon social Parqueadero, Nit, dirección, número contacto, nombre del colaborador asosiado en la facturación, número de factura, fecha creación factura, hora creación factura, ciudad y departamento de facturación,metodo de pago, tambien tendrá detalles de factura, con su respectivo subtotal, IVA por servicio, y total.
+Para el pagó de la factura se recibirá tres medios de pago: tarjeta de crédito, tarjeta débito y pago en efectivo.
+**La factura se entregará al cliente por medio de su correo eléctronico**
+**Si se presenta alguna novedad el usuario colaborador podrá cancelar la factura y no registrarla en la base de datos y podrá solicitar una nueva factura**
+**Si todo va bien el sistema mostrará al usuario colaborador el siguiente mensaje: Factura registrada exitosamente.**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema permitirá que el usuario Cliente pueda eliminar visitas al parqueadero.
+**Esta eliminación solo supondra una inhabilitación en la base de datos, imposibilitando que el usuario vuelva a realizar consulta sobre estos  registros "eliminados" por parte del Usuario Cliente**
+**El sistema debera lanzar un mensaje al usuario con lo siguiente: ¿Está seguro de eliminar la visita la parqueadero?. Posteriormente dará dos opciones: Sí o No, en el caso de que el usuario opte por el No, se cancelará el proceso y se le regresará al inicio de este modulo, en caso contrario el sistema mostrará al usuario cliente el siguiente mensaje: Visita eliminada correctamente**
+</t>
+  </si>
+  <si>
+    <t>GESTIONAR HISTORIAL DE VISITAS(Colaborador)</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitir que el usuario Colaborador realice consultas de visitas de determinado cliente, el sistema le pedirá los siguientes datos: cedula del cliente. Posteriormente se desplegarán todas las visitas que el cliente consultado haya realizado al parqueadero, podrá filtrar las visitas por año, mes y día</t>
+  </si>
+  <si>
+    <t>Usuario debidamente Logueado y existir por lo menos un registro de visita al parqueadero del cliente a consultar.</t>
   </si>
 </sst>
 </file>
@@ -617,18 +641,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -651,10 +671,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -666,6 +686,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -982,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0B6675-8AE4-4F3A-B862-070F4393DCED}">
   <dimension ref="B3:E52"/>
   <sheetViews>
-    <sheetView zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,12 +1018,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
@@ -1020,7 +1044,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>4</v>
@@ -1091,12 +1115,12 @@
     </row>
     <row r="11" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="2:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
@@ -1173,12 +1197,12 @@
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
     </row>
     <row r="27" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
@@ -1199,7 +1223,7 @@
         <v>17</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>4</v>
@@ -1279,12 +1303,12 @@
       </c>
     </row>
     <row r="42" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="21"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="19"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
@@ -1305,7 +1329,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>4</v>
@@ -1402,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76661423-4582-4386-9469-7926065CC2F9}">
   <dimension ref="A2:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A35" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,12 +1440,12 @@
   <sheetData>
     <row r="2" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
@@ -1442,7 +1466,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>40</v>
@@ -1484,12 +1508,12 @@
     </row>
     <row r="9" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
@@ -1510,7 +1534,9 @@
       <c r="C12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="29" t="s">
+        <v>40</v>
+      </c>
       <c r="E12" s="4" t="s">
         <v>77</v>
       </c>
@@ -1520,7 +1546,9 @@
       <c r="C13" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="29" t="s">
+        <v>40</v>
+      </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.25">
@@ -1528,7 +1556,9 @@
       <c r="C14" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="29" t="s">
+        <v>40</v>
+      </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1536,18 +1566,20 @@
       <c r="C15" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="29" t="s">
+        <v>40</v>
+      </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:5" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:5" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" spans="2:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
@@ -1603,53 +1635,32 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-    </row>
+    <row r="24" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="26"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
     </row>
     <row r="30" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
     </row>
     <row r="31" spans="2:5" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="14"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="18"/>
+      <c r="C31" s="9"/>
+      <c r="E31" s="9"/>
     </row>
     <row r="32" spans="2:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="14"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-    </row>
-    <row r="33" spans="2:5" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="14"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-    </row>
-    <row r="34" spans="2:5" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="14"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="3:3" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="3:3" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1666,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71CD9AC-C89D-4037-B336-25BD3780C31C}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView zoomScale="62" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1679,16 +1690,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
@@ -1707,19 +1718,19 @@
     <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>4</v>
@@ -1729,7 +1740,7 @@
     <row r="7" spans="1:5" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>4</v>
@@ -1739,7 +1750,7 @@
     <row r="8" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
@@ -1747,20 +1758,20 @@
       <c r="E8" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-    </row>
-    <row r="13" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
@@ -1779,7 +1790,7 @@
     <row r="15" spans="1:5" ht="367.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>4</v>
@@ -1789,7 +1800,7 @@
     <row r="16" spans="1:5" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>4</v>
@@ -1799,7 +1810,7 @@
     <row r="17" spans="2:5" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>4</v>
@@ -1809,7 +1820,7 @@
     <row r="18" spans="2:5" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
@@ -1817,12 +1828,12 @@
       <c r="E18" s="1"/>
     </row>
     <row r="25" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="B25" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
     </row>
     <row r="26" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
@@ -1841,40 +1852,34 @@
     <row r="27" spans="2:5" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>97</v>
+      <c r="E27" s="14" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="E28" s="14" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="31" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
+      <c r="B31" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
     </row>
     <row r="32" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
@@ -1893,7 +1898,7 @@
     <row r="33" spans="2:5" ht="150" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>4</v>
@@ -1903,7 +1908,7 @@
     <row r="34" spans="2:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>4</v>
@@ -1912,12 +1917,12 @@
     </row>
     <row r="35" spans="2:5" ht="84" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
+      <c r="B36" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
     </row>
     <row r="37" spans="2:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
@@ -1935,8 +1940,8 @@
     </row>
     <row r="38" spans="2:5" ht="270" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
-      <c r="C38" s="16" t="s">
-        <v>100</v>
+      <c r="C38" s="15" t="s">
+        <v>118</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>4</v>
@@ -1946,7 +1951,7 @@
     <row r="39" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>4</v>
@@ -1956,7 +1961,7 @@
     <row r="40" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>4</v>
@@ -1964,26 +1969,16 @@
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="2:5" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:5" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-    </row>
-    <row r="43" spans="2:5" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-    </row>
+    <row r="42" spans="2:5" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:5" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B36:E36"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B36:E36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1991,12 +1986,111 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBA7AB8-BBFD-44A8-9F2A-E2F2A480B5ED}">
-  <dimension ref="A1"/>
+  <dimension ref="C2:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="68" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="5" max="5" width="42" customWidth="1"/>
+    <col min="6" max="6" width="40.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C2" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+      <c r="D4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+      <c r="D5" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="3:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+      <c r="D9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C7:F7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Requerimientos Parqueadero.xlsx
+++ b/Requerimientos Parqueadero.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhoan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3908606B-278F-4A32-B4B8-714DBA9B28D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90F86F8-AF14-47A7-8DCB-8E9BDBE66CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3988C1B8-DEA9-472A-9E64-089533DFC60C}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
-    <sheet name="Plazas y vehículos" sheetId="2" r:id="rId2"/>
+    <sheet name="Plazas y Tipo_vehículos" sheetId="2" r:id="rId2"/>
     <sheet name="Reservas y servicios Parking" sheetId="3" r:id="rId3"/>
     <sheet name="Mis Parking" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -99,13 +99,6 @@
     <t>RF 2.6</t>
   </si>
   <si>
-    <t>El sistema permitirá que el adminitrador realice el registro de tipo de rol, el cual contendrá los campos:  tipo_de_Rol, descripción.
-**Los tipos de roles que estarán habilitados en el sistema serán: administrador, cliente  y vendedor**
-**El usuario administrador tendrá el control absolutó del sistema de información**
-**El usuario cliente tendrá permisos para interactuar con el sistema de información, podrá consultar, actualizar y eliminar su cuenta, ademas de poder solicitar el servicio de parqueadero las 24/7.**
-**El usuario colaborador solo tendra permisos de consultar sus datos personales, consultar la disponibilidad de cubiculos en el parqueadero, los tipos de cubiculos,  horas de entrada y salida de vehiculos al parqueadero, precios del servicio por tipo de  cubiculo y también tendra permisos de generar factura**</t>
-  </si>
-  <si>
     <t>El sistema deberá permitir que el usuario de rol administrador pueda consultar los tipos de rol.</t>
   </si>
   <si>
@@ -291,10 +284,6 @@
     <t xml:space="preserve">Ingresar los datos completos y solicitados para llevar a cabo el registro.  </t>
   </si>
   <si>
-    <t xml:space="preserve">El sistema permitirá al administrador registrar Tipo_Vehículo con los siguientes datos: Tipo_Vehículo, Plaza de estacionamiento optima para el tipo de vehículo (pequeña, media, grande), descripción.
-Si todos los datos están bien diligenciados, el sistema mostrará un mensaje de que su registro se completo satisfactoriamente, de lo contrario, el usuario deberá corregir los datos. </t>
-  </si>
-  <si>
     <t>El sistema permitirá al administrador consultar los tipos de Vehículos listandolos por oden alfabético.</t>
   </si>
   <si>
@@ -312,19 +301,11 @@
     <t>El sistema deberá permitir que el usuario cliente pueda consultar el o los vehículos que haya registrado en su cuenta, se deplegará una lista y además, podra hacer una consulta detallada de cada uno de los vehículos.</t>
   </si>
   <si>
-    <t>El sistema deberá permitir que el usuario cliente pueda registrar vehículos en su cuenta personal solicitandole los siguientes datos: numero de Placa, tipo_vehículo, marca, modelo y fotografiía o scanner de tarjeta de propiedad del vehículo, descripción.</t>
-  </si>
-  <si>
     <t>El sistema permitirá al usuario cliente realizar modificaciónes a el o los vehículos registrados en su cuenta personal exceptuando la placa del vehículo, la marca y el modelo.</t>
   </si>
   <si>
     <t>El sistma permitira al usuario cliente Inhabilitar/Habilitar un vehículo que haya registrado en su cuenta, al realizar esta accíon deberá mostrarle una notificación en pantalla al cliente que la acción fue exitosa, de lo contrario notificar que algo salió mal.
 **El sistema también deberá mantener el vehículo inhabilitado en un submodulo de archivo y notificararle al usuario cliente  que despues de 30 días el vehículo se eliminará completamente y ademas, si en el rango de esos 30 días el usuario desea restaurar el vehículo inhabilitado se lo permita hacer y notificarle en un mendaje en pantalla: Restauración exitosa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sistemas permitirá al administardor registrar plazas de estacionamiento al sistema, especificando su ubicación, tamaño y precio por hora.
-Si todos los datos están bien diligenciados, el sistema mostrará un mensaje de que su registro se completo satisfactoriamente, de lo contrario, el usuario deberá corregir los datos. 
-</t>
   </si>
   <si>
     <t>El usuario cliente debe tener por lo menos un vehículo registrado en su cuenta personal</t>
@@ -388,17 +369,6 @@
 **Si todo va bien se motrará una notificación al usuario que el registro fue exitoso**</t>
   </si>
   <si>
-    <t xml:space="preserve">El sistema por defecto deberá tener el rol administrador registrado en la base de datos y por lo mínimo un administrador registrado con los siguientes datos: nombres, apellidos, correo eléctronico empresaria,  contraseña temporal y celular.
-</t>
-  </si>
-  <si>
-    <t>El sistema deberá permitir al usuario cliente registrar una reserva de servicio de parking en linea solicitandole los siguientes datos: vehículo que necesita el servicio (listar los vehículos que el usuario tiene registrado en su cuenta personal y tenga la posiblidad de seleccionar solo uno por reserva) fecha del servicio, horario de entrada y horario de salida (El horario de salida no será un campo obligatorio) se mostará en pantalla al usuario las plazas de estacionamiento disponibles para el Tipo_Vehículo, la fecha seleccionada
-El sistema mostará al usuario cliente los valores estandares por hora para los tamaños de plazas de estacionamiento de vehículos que están estipulados según el tipo_Vehículo 
-** si el horario de entrada y horario de salida se diligencian de manera optima se debe mostar el cobro por el servicio, teniendo en cuenta que plaza de estacionamiento se utilizará y tiempo de duración del servicio para calcular el precio total a pagar, En caso contario deberá notificar al usuario que el cobro total se calculará en la facturaión al finalizar el servicio**
-** Al finalizar el registro de la reserva se le notificará al usuario cliente que  si presenta una demora superior a los 30 minutos  para realizar Check in ene l horario que solicito en la respectiva fecha se le cancelara la reserva ademas se le cobrará una sanción de 20% pagado y el restante se le devolvera al origen con el que pago la reserva. En caso de que aún no hubiese pago por motivos de medio de pago o no saber la hora de salida se le hara un cargo en la proxima reserva respectiva**
-**El sistema deberá poner por defecto el estado de la reserva como activa y el estado del servicio como pendiente (El estado del servicio solo cambiara cuando el usuario cliente haga Check in  en la recepción del parqueadero con el colaborador quién será el encargado de realizar el cambio de estado del servicio)**</t>
-  </si>
-  <si>
     <t xml:space="preserve">El sistema deberá  permitir que se registre un usuario de tipo_Rol cliente solicitando los siguientes datos: primer nombre,  segundo nombre, primer apellido, segundo apellido, Tipo_Documento ( solo se permitirán: pasaporte, cédula de extranjería), numero de identificación, correo electrónico, teléfono, contraseña con nivel de seguridad media, confirmar contraseña Si todos los datos están correctos, el sistema mostrará un mensaje de que su registro se completo satisfactoriamente, de lo contrario, el usuario deberá corregir los datos. </t>
   </si>
   <si>
@@ -469,6 +439,38 @@
   </si>
   <si>
     <t>Usuario debidamente Logueado y existir por lo menos un registro de visita al parqueadero del cliente a consultar.</t>
+  </si>
+  <si>
+    <t>El sistema deberá mostrar al usuario cliente indicadores visuales o notificaciones que informan si el parqueadero está lleno o hay 
+espacios disponibles. 
+El sistema deberá permitir al usuario cliente registrar una reserva (siempre y cuando haya disponibilidad en el parqueadero) de servicio de parking en linea solicitandole los siguientes datos: vehículo que necesita el servicio (listar los vehículos que el usuario tiene registrado en su cuenta personal y tenga la posiblidad de seleccionar solo uno por reserva) fecha del servicio, horario de entrada y horario de salida (El horario de salida no será un campo obligatorio) se mostará en pantalla al usuario las plazas de estacionamiento disponibles para el Tipo_Vehículo, la fecha seleccionada
+El sistema mostará al usuario cliente los valores estandares por hora para los tamaños de plazas de estacionamiento de vehículos que están estipulados según el tipo_Vehículo.
+** si el horario de entrada y horario de salida se diligencian de manera optima se debe mostar el cobro por el servicio, teniendo en cuenta que plaza de estacionamiento se utilizará y tiempo de duración del servicio para calcular el precio total a pagar, En caso contario deberá notificar al usuario que el cobro total se calculará en la facturaión al finalizar el servicio**
+** Al finalizar el registro de la reserva se le notificará al usuario cliente que  si presenta una demora superior a los 30 minutos  para realizar Check in ene l horario que solicito en la respectiva fecha se le cancelara la reserva ademas se le cobrará una sanción de 20% pagado y el restante se le devolvera al origen con el que pago la reserva. En caso de que aún no hubiese pago por motivos de medio de pago o no saber la hora de salida se le hara un cargo en la proxima reserva respectiva**
+**El sistema deberá poner por defecto el estado de la reserva como activa y el estado del servicio como pendiente (El estado del servicio solo cambiara cuando el usuario cliente haga Check in  en la recepción del parqueadero con el colaborador quién será el encargado de realizar el cambio de estado del servicio)**</t>
+  </si>
+  <si>
+    <t>El sistema permitirá que el adminitrador realice el registro de tipo de rol, el cual contendrá los campos:  tipo_de_Rol, descripción en donde estipulará los permisos que tendrá el nuevo rol en el sistema.
+**Los tipos de roles que estarán habilitados en el sistema serán: administrador, cliente  y vendedor**
+**El usuario administrador tendrá el control absolutó del sistema de información**
+**El usuario cliente tendrá permisos para interactuar con el sistema de información, podrá consultar, actualizar y eliminar su cuenta, ademas de poder solicitar el servicio de parqueadero las 24/7.**
+**El usuario colaborador solo tendra permisos de consultar sus datos personales, consultar la disponibilidad de cubiculos en el parqueadero, los tipos de cubiculos,  horas de entrada y salida de vehiculos al parqueadero, precios del servicio por tipo de  cubiculo y también tendra permisos de generar factura**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema por defecto deberá tener el rol administrador registrado en la base de datos y por lo mínimo un administrador registrado con los siguientes datos: nombres, apellidos, correo eléctronico empresarial,  contraseña y celular.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema permitirá al administrador registrar Tipo_Vehículo con los siguientes datos: NombreTipo_Vehículo, Plaza de estacionamiento optima para el tipo de vehículo (pequeña, media, grande), descripción.
+Si todos los datos están bien diligenciados, el sistema mostrará un mensaje de que su registro se completo satisfactoriamente, de lo contrario, el usuario deberá corregir los datos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistemas permitirá al administardor registrar plazas de estacionamiento especificando su ubicación, tamaño, cod_tipoVehículo y precio por hora.
+Si todos los datos están bien diligenciados, el sistema mostrará un mensaje de que su registro se completo satisfactoriamente, de lo contrario, el usuario deberá corregir los datos. 
+</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitir que el usuario cliente pueda registrar vehículos en su cuenta personal solicitandole los siguientes datos: numero de Placa, tipo_vehículo, marca, modelo  y descripción.</t>
   </si>
 </sst>
 </file>
@@ -604,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -637,7 +639,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -650,6 +651,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -686,10 +690,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1006,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0B6675-8AE4-4F3A-B862-070F4393DCED}">
   <dimension ref="B3:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1019,7 @@
   <sheetData>
     <row r="3" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -1041,38 +1041,38 @@
     </row>
     <row r="5" spans="2:5" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>4</v>
@@ -1081,37 +1081,37 @@
     </row>
     <row r="8" spans="2:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="306" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="306" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1141,13 +1141,13 @@
         <v>3</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1155,13 +1155,13 @@
         <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -1169,13 +1169,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1183,10 +1183,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="26" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -1223,13 +1223,13 @@
         <v>17</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1237,7 +1237,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
@@ -1251,7 +1251,7 @@
         <v>18</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>4</v>
@@ -1265,7 +1265,7 @@
         <v>19</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>4</v>
@@ -1279,7 +1279,7 @@
         <v>20</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>4</v>
@@ -1293,7 +1293,7 @@
         <v>22</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>4</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="42" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
@@ -1326,83 +1326,83 @@
     </row>
     <row r="44" spans="2:5" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="272.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>12</v>
@@ -1426,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76661423-4582-4386-9469-7926065CC2F9}">
   <dimension ref="A2:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A17" zoomScale="81" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,9 +1439,9 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -1463,43 +1463,43 @@
     </row>
     <row r="4" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1509,7 +1509,7 @@
     <row r="9" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -1532,42 +1532,42 @@
     <row r="12" spans="1:5" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>40</v>
+        <v>120</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>40</v>
+        <v>77</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>40</v>
+        <v>78</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>40</v>
+        <v>79</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -1575,7 +1575,7 @@
     <row r="17" spans="2:5" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:5" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -1598,7 +1598,7 @@
     <row r="20" spans="2:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="4" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
@@ -1608,7 +1608,7 @@
     <row r="21" spans="2:5" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
@@ -1618,7 +1618,7 @@
     <row r="22" spans="2:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
@@ -1628,7 +1628,7 @@
     <row r="23" spans="2:5" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>4</v>
@@ -1644,10 +1644,10 @@
       <c r="E29" s="25"/>
     </row>
     <row r="30" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
     </row>
     <row r="31" spans="2:5" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="9"/>
@@ -1677,7 +1677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71CD9AC-C89D-4037-B336-25BD3780C31C}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -1690,12 +1690,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -1718,19 +1718,19 @@
     <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="4" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>4</v>
@@ -1740,7 +1740,7 @@
     <row r="7" spans="1:5" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>4</v>
@@ -1750,7 +1750,7 @@
     <row r="8" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="13" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
@@ -1790,7 +1790,7 @@
     <row r="15" spans="1:5" ht="367.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>4</v>
@@ -1800,7 +1800,7 @@
     <row r="16" spans="1:5" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>4</v>
@@ -1810,7 +1810,7 @@
     <row r="17" spans="2:5" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>4</v>
@@ -1820,7 +1820,7 @@
     <row r="18" spans="2:5" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="25" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B25" s="22" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -1852,30 +1852,30 @@
     <row r="27" spans="2:5" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>96</v>
+      <c r="E27" s="13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>97</v>
+      <c r="E28" s="13" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B31" s="22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -1898,7 +1898,7 @@
     <row r="33" spans="2:5" ht="150" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>4</v>
@@ -1908,7 +1908,7 @@
     <row r="34" spans="2:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>4</v>
@@ -1918,7 +1918,7 @@
     <row r="35" spans="2:5" ht="84" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
@@ -1940,8 +1940,8 @@
     </row>
     <row r="38" spans="2:5" ht="270" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
-      <c r="C38" s="15" t="s">
-        <v>118</v>
+      <c r="C38" s="14" t="s">
+        <v>112</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>4</v>
@@ -1951,7 +1951,7 @@
     <row r="39" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>4</v>
@@ -1961,7 +1961,7 @@
     <row r="40" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>4</v>
@@ -1988,7 +1988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBA7AB8-BBFD-44A8-9F2A-E2F2A480B5ED}">
   <dimension ref="C2:F9"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="68" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -2002,7 +2002,7 @@
   <sheetData>
     <row r="2" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C2" s="22" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -2025,36 +2025,31 @@
     <row r="4" spans="3:6" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="D4" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="3:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
-      <c r="D5" s="15" t="s">
-        <v>119</v>
+      <c r="D5" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-    </row>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="3:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="22" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
@@ -2077,13 +2072,13 @@
     <row r="9" spans="3:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="D9" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
